--- a/MobileHealthConsumer/MpbileHealth-ImageList.xlsx
+++ b/MobileHealthConsumer/MpbileHealth-ImageList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2700" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Future Mom</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Pregnant woman holding baby shoes on her belly</t>
   </si>
   <si>
-    <t>mom and baby vector icon</t>
-  </si>
-  <si>
     <t>Gym Reimbusement</t>
   </si>
   <si>
@@ -89,13 +86,69 @@
   </si>
   <si>
     <t>handsome man bike store</t>
+  </si>
+  <si>
+    <t>Child hand holding father finger over blurred the cross on sunset background. Health Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244523500
+</t>
+  </si>
+  <si>
+    <t>Worksite Wellness</t>
+  </si>
+  <si>
+    <t>Business and healthy lifestyle concept. Portrait of beautiful sporty young office woman standing with yoga mat at workplace on break time</t>
+  </si>
+  <si>
+    <t>Health assesment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close up woman hand hold mobile </t>
+  </si>
+  <si>
+    <t>Health assistant</t>
+  </si>
+  <si>
+    <t>Hand holding a mobile phone with health monitoring application on the screen, shot with young woman drinking water at gym</t>
+  </si>
+  <si>
+    <t>Weight center at anthem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitness and weight loss concept, dumbbells, white scale, towels, fruit, tape measure and digital tablet on a wooden table, top view
+</t>
+  </si>
+  <si>
+    <t>Special Offers</t>
+  </si>
+  <si>
+    <t>Family On Cycle Ride In Countryside</t>
+  </si>
+  <si>
+    <t>ICONs</t>
+  </si>
+  <si>
+    <t>Pregnant women - outdoor</t>
+  </si>
+  <si>
+    <t>Health Record</t>
+  </si>
+  <si>
+    <t>Family Sitting At Desk Using Laptop At Home</t>
+  </si>
+  <si>
+    <t>Mom with kid looking at laptop</t>
+  </si>
+  <si>
+    <t>sun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +162,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -152,6 +210,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -484,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D23"/>
+  <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showRuler="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -497,7 +559,7 @@
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="1" customFormat="1">
+    <row r="1" spans="2:5" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,8 +569,11 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" ht="30">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="30">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -519,60 +584,66 @@
         <v>423490117</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3">
+        <v>424314376</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
-        <v>163274903</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="30">
-      <c r="B7" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D7" s="3">
         <v>339261458</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:5" ht="30">
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <v>143975662</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:5" ht="30">
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>388702705</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30">
+    <row r="13" spans="2:5" ht="30">
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>93224191</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:5" ht="45">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3">
         <v>183776036</v>
@@ -580,7 +651,7 @@
     </row>
     <row r="22" spans="2:4" ht="30">
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>359504291</v>
@@ -588,10 +659,84 @@
     </row>
     <row r="23" spans="2:4">
       <c r="C23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3">
         <v>197695376</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="75">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>413984797</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7">
+        <v>419004694</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="60">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>390438214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="90">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>282254006</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="30">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3">
+        <v>165826010</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>290095718</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30">
+      <c r="C44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="3">
+        <v>116495839</v>
       </c>
     </row>
   </sheetData>
@@ -606,22 +751,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -629,7 +774,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -637,7 +782,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -645,7 +790,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -653,7 +798,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -661,9 +806,48 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
     </row>
